--- a/Program/example_condition.xlsx
+++ b/Program/example_condition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\database_filtering\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FF1142-920F-4A32-865A-725871AF4FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76C8726C-CE98-4BA5-BE0F-19C87A366BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1092,12 +1092,6 @@
     <t>ค่าใช้จ่าย</t>
   </si>
   <si>
-    <t>บันทึกเข้า Product 192020001</t>
-  </si>
-  <si>
-    <t>product 192020001</t>
-  </si>
-  <si>
     <t>5X641XXX</t>
   </si>
   <si>
@@ -1210,6 +1204,12 @@
   </si>
   <si>
     <t>รหัสกิจกรรม N0105 รหัสบัญชี 54XXXXXX เท่านั้น</t>
+  </si>
+  <si>
+    <t>segment 19202</t>
+  </si>
+  <si>
+    <t>บันทึกเข้า เซกเมนต์ 19202</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +1664,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F2" s="15"/>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F3" s="15"/>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F4" s="15"/>
     </row>
@@ -1811,11 +1811,11 @@
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F9" s="15"/>
     </row>
@@ -1825,11 +1825,11 @@
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F10" s="15"/>
     </row>
@@ -1839,15 +1839,15 @@
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" s="12" customFormat="1" ht="21" customHeight="1">
+    <row r="12" spans="1:6" s="12" customFormat="1" ht="18.75" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>354</v>
       </c>
@@ -1855,20 +1855,20 @@
         <v>355</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" s="12" customFormat="1" ht="18.75" customHeight="1">
       <c r="A13" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>343</v>
@@ -1879,38 +1879,38 @@
     </row>
     <row r="14" spans="1:6" s="12" customFormat="1" ht="18.75" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" s="12" customFormat="1" ht="18.75" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" s="12" customFormat="1" ht="18.75" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>343</v>
@@ -1921,10 +1921,10 @@
     </row>
     <row r="17" spans="1:6" s="12" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="17" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>343</v>
@@ -1935,10 +1935,10 @@
     </row>
     <row r="18" spans="1:6" s="12" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>343</v>
@@ -1949,10 +1949,10 @@
     </row>
     <row r="19" spans="1:6" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A19" s="17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>343</v>
@@ -1963,10 +1963,10 @@
     </row>
     <row r="20" spans="1:6" s="12" customFormat="1" ht="18.75" customHeight="1">
       <c r="A20" s="19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>343</v>
@@ -1977,65 +1977,65 @@
     </row>
     <row r="21" spans="1:6" s="12" customFormat="1" ht="20.25" customHeight="1">
       <c r="A21" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>373</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>375</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" s="12" customFormat="1" ht="20.25" customHeight="1">
       <c r="A22" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>376</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>378</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1">
       <c r="A23" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>355</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" s="12" customFormat="1" ht="18.75" customHeight="1">
       <c r="A24" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>355</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F24" s="14"/>
     </row>
